--- a/results_binary.xlsx
+++ b/results_binary.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Grad1\Randomized\RandomizedProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F78E3B2E-BE37-4E9F-9739-3FBE92AB0707}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6D239C-D5EE-4A32-9E08-06D0DEC766C5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8202"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8202" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -97,7 +105,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2463,6 +2471,7 @@
         <c:axId val="684602752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6138,10 +6147,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P720"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>

--- a/results_binary.xlsx
+++ b/results_binary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Grad1\Randomized\RandomizedProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6D239C-D5EE-4A32-9E08-06D0DEC766C5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6C68EA-B3AA-4796-9688-F33980AB2BBB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8202" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="25">
   <si>
     <t>binary_smallmed_gen.txt</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>150x150</t>
+  </si>
+  <si>
+    <t>boundary</t>
   </si>
 </sst>
 </file>
@@ -980,6 +983,92 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>boundary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="6350" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>results!$E$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>has_one</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>missing_one</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$E$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B8F3-4BFA-BF1B-F04A934E8178}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1651,6 +1740,92 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6BCE-42CE-86F9-F5D3A0E32597}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results!$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>boundary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="6350" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>results!$L$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>random 10%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>random 25%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>random 50%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>random 75%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>random 90%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$L$5:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6D2E-4516-AAD7-1ED199A8BC5B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2333,6 +2508,92 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results!$D$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>boundary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="6350" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>results!$E$40:$I$40</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>has_one</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>missing_one</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$E$44:$I$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD13-4FA7-9B29-31CB44F59D06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3005,6 +3266,92 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5FEE-4C50-92F8-1826BD964EF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>results!$K$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>boundary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="6350" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>results!$L$40:$P$40</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>random 10%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>random 25%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>random 50%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>random 75%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>random 90%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>results!$L$44:$P$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2292-48F6-BAA6-3137C800EF8A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5707,15 +6054,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6150,8 +6497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P720"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
+      <selection activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6369,6 +6716,42 @@
       <c r="B5">
         <v>232</v>
       </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
@@ -6842,6 +7225,42 @@
       </c>
       <c r="B44">
         <v>466</v>
+      </c>
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="K44" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.55000000000000004">
